--- a/icd_files/7945.xlsx
+++ b/icd_files/7945.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3063F75-9766-449D-97A2-CB58B8141AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24305F8A-66ED-4C8A-BFE1-6D9519C34FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="329">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -510,6 +510,12 @@
     <t>11-04</t>
   </si>
   <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>11-06</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -519,30 +525,129 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
     <t>Potassium Chl 20 mEq / 1000 mL D5NS</t>
   </si>
   <si>
-    <t>NS</t>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycodONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>HydrALAZINE HCl</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
   </si>
   <si>
     <t>LR</t>
   </si>
   <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Syringe (IV Room)</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>23:00</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>10 BAG</t>
+  </si>
+  <si>
+    <t>2.5 ml</t>
+  </si>
+  <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>2 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>30 BAG</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
-    <t>1000 BAG</t>
-  </si>
-  <si>
-    <t>250 ml</t>
-  </si>
-  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -576,6 +681,27 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>40 CAP</t>
+  </si>
+  <si>
+    <t>1-2 ml</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>06:30</t>
   </si>
   <si>
@@ -589,6 +715,27 @@
   </si>
   <si>
     <t>16:30</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
+  </si>
+  <si>
+    <t>20 PKT</t>
+  </si>
+  <si>
+    <t>10-15 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3731,7 +3878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000000-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4633,7 +4780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000001-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5535,7 +5682,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000002-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6449,7 +6596,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000003-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7363,7 +7510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000004-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7974,7 +8121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000005-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8499,7 +8646,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000006-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9024,7 +9171,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000007-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9549,7 +9696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000008-8C3A-4A9F-9E48-791588A56374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9992,7 +10139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4E522-A615-4C4E-8636-7DA1D960D3F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A66436-58D6-4E07-BEBE-DB014E2E49CE}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -10017,7 +10164,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10030,7 +10177,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10043,7 +10190,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10056,7 +10203,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10069,27 +10216,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10117,7 +10264,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10145,11 +10292,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10172,7 +10319,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10209,7 +10356,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10232,14 +10379,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10262,14 +10409,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10292,14 +10439,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10322,14 +10469,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10352,16 +10499,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10384,14 +10531,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10414,10 +10561,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10425,7 +10572,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10437,7 +10584,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10460,7 +10607,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10476,11 +10623,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10503,7 +10650,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10521,7 +10668,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10544,7 +10691,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10563,7 +10710,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10586,10 +10733,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10607,7 +10754,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10630,52 +10777,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10698,53 +10845,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10767,43 +10914,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10811,7 +10958,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10834,43 +10981,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10878,7 +11025,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10901,43 +11048,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10945,7 +11092,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10968,43 +11115,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -11012,7 +11159,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -11035,43 +11182,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11079,7 +11226,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11102,43 +11249,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11146,7 +11293,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11169,43 +11316,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11213,7 +11360,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11236,43 +11383,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11280,7 +11427,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11303,43 +11450,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11347,7 +11494,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11370,43 +11517,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11414,7 +11561,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11437,43 +11584,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11481,7 +11628,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11504,7 +11651,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11517,10 +11664,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11528,7 +11675,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11551,14 +11698,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11573,7 +11720,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11596,7 +11743,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11616,7 +11763,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11639,7 +11786,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11659,7 +11806,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11682,7 +11829,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11700,11 +11847,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11727,14 +11874,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11757,14 +11904,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11787,14 +11934,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11817,14 +11964,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11847,14 +11994,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11877,14 +12024,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11907,10 +12054,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11927,7 +12074,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11950,7 +12097,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11968,7 +12115,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11991,7 +12138,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -12009,7 +12156,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -12032,14 +12179,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12062,14 +12209,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12092,24 +12239,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12132,7 +12279,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12141,7 +12288,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12164,14 +12311,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12179,7 +12326,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12202,7 +12349,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12211,7 +12358,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12234,14 +12381,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12249,7 +12396,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12272,7 +12419,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12281,7 +12428,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12304,24 +12451,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12344,7 +12491,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12353,7 +12500,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12376,22 +12523,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12399,7 +12546,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12422,7 +12569,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12435,7 +12582,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12458,32 +12605,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12506,7 +12653,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12515,7 +12662,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12538,14 +12685,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12553,7 +12700,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12576,14 +12723,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12606,12 +12753,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12639,7 +12786,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12666,13 +12813,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12700,7 +12847,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12812,7 +12959,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12840,7 +12987,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12868,7 +13015,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -16366,13 +16513,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:EW59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -16380,7 +16527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
@@ -16439,297 +16586,879 @@
         <v>156</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EO31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EP31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="EU31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EV31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EW31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J32" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="R32" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="S32" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="T32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="U32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="V32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="W32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Y32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Z32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AB32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AC32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AD32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AE32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AG32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AH32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AI32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AJ32" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AK32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AL32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AM32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AN32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AO32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AP32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AQ32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AR32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AS32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AT32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AU32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AV32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AW32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AX32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AY32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AZ32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="BA32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="BB32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="BC32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="BD32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>213</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>215</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>217</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>218</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>210</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>210</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>226</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>229</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>214</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>230</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>216</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>208</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>210</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>214</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>216</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>191</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>208</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>210</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -16753,28 +17482,28 @@
         <v>6</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -16783,169 +17512,4318 @@
         <v>6</v>
       </c>
       <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>6</v>
+      </c>
+      <c r="AD35">
+        <v>6</v>
+      </c>
+      <c r="AE35">
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <v>6</v>
+      </c>
+      <c r="AH35">
+        <v>6</v>
+      </c>
+      <c r="AI35">
+        <v>6</v>
+      </c>
+      <c r="AJ35">
+        <v>6</v>
+      </c>
+      <c r="AK35">
+        <v>6</v>
+      </c>
+      <c r="AL35">
+        <v>6</v>
+      </c>
+      <c r="AM35">
+        <v>6</v>
+      </c>
+      <c r="AN35">
+        <v>6</v>
+      </c>
+      <c r="AO35">
+        <v>6</v>
+      </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <v>6</v>
+      </c>
+      <c r="AR35">
+        <v>6</v>
+      </c>
+      <c r="AS35">
+        <v>6</v>
+      </c>
+      <c r="AT35">
+        <v>6</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>6</v>
+      </c>
+      <c r="AZ35">
+        <v>6</v>
+      </c>
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>6</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>6</v>
+      </c>
+      <c r="BE35">
+        <v>6</v>
+      </c>
+      <c r="BF35">
+        <v>6</v>
+      </c>
+      <c r="BG35">
+        <v>6</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>6</v>
+      </c>
+      <c r="BJ35">
+        <v>6</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+      <c r="BL35">
+        <v>6</v>
+      </c>
+      <c r="BM35">
+        <v>6</v>
+      </c>
+      <c r="BN35">
+        <v>6</v>
+      </c>
+      <c r="BO35">
+        <v>6</v>
+      </c>
+      <c r="BP35">
+        <v>6</v>
+      </c>
+      <c r="BQ35">
+        <v>6</v>
+      </c>
+      <c r="BR35">
+        <v>6</v>
+      </c>
+      <c r="BS35">
+        <v>6</v>
+      </c>
+      <c r="BT35">
+        <v>6</v>
+      </c>
+      <c r="BU35">
+        <v>6</v>
+      </c>
+      <c r="BV35">
+        <v>6</v>
+      </c>
+      <c r="BW35">
+        <v>6</v>
+      </c>
+      <c r="BX35">
+        <v>6</v>
+      </c>
+      <c r="BY35">
+        <v>6</v>
+      </c>
+      <c r="BZ35">
+        <v>6</v>
+      </c>
+      <c r="CA35">
+        <v>6</v>
+      </c>
+      <c r="CB35">
+        <v>6</v>
+      </c>
+      <c r="CC35">
+        <v>6</v>
+      </c>
+      <c r="CD35">
+        <v>6</v>
+      </c>
+      <c r="CE35">
+        <v>6</v>
+      </c>
+      <c r="CF35">
+        <v>6</v>
+      </c>
+      <c r="CG35">
+        <v>6</v>
+      </c>
+      <c r="CH35">
+        <v>6</v>
+      </c>
+      <c r="CI35">
+        <v>6</v>
+      </c>
+      <c r="CJ35">
+        <v>6</v>
+      </c>
+      <c r="CK35">
+        <v>6</v>
+      </c>
+      <c r="CL35">
+        <v>6</v>
+      </c>
+      <c r="CM35">
+        <v>6</v>
+      </c>
+      <c r="CN35">
+        <v>6</v>
+      </c>
+      <c r="CO35">
+        <v>6</v>
+      </c>
+      <c r="CP35">
+        <v>6</v>
+      </c>
+      <c r="CQ35">
+        <v>6</v>
+      </c>
+      <c r="CR35">
+        <v>6</v>
+      </c>
+      <c r="CS35">
+        <v>6</v>
+      </c>
+      <c r="CT35">
+        <v>6</v>
+      </c>
+      <c r="CU35">
+        <v>10</v>
+      </c>
+      <c r="CV35">
+        <v>10</v>
+      </c>
+      <c r="CW35">
+        <v>10</v>
+      </c>
+      <c r="CX35">
+        <v>10</v>
+      </c>
+      <c r="CY35">
+        <v>10</v>
+      </c>
+      <c r="CZ35">
         <v>7</v>
       </c>
-      <c r="T35">
+      <c r="DA35">
         <v>10</v>
       </c>
-      <c r="U35">
+      <c r="DB35">
         <v>10</v>
       </c>
-      <c r="V35">
+      <c r="DC35">
+        <v>6</v>
+      </c>
+      <c r="DD35">
+        <v>6</v>
+      </c>
+      <c r="DE35">
+        <v>7</v>
+      </c>
+      <c r="DF35">
         <v>10</v>
       </c>
-      <c r="W35">
+      <c r="DH35">
+        <v>10</v>
+      </c>
+      <c r="DI35">
+        <v>10</v>
+      </c>
+      <c r="DJ35">
         <v>7</v>
       </c>
-      <c r="X35">
+      <c r="DK35">
         <v>8</v>
       </c>
-      <c r="Y35">
+      <c r="DL35">
         <v>8</v>
       </c>
-      <c r="Z35">
+      <c r="DM35">
         <v>8</v>
       </c>
-      <c r="AA35">
+      <c r="DO35">
         <v>8</v>
       </c>
-      <c r="AB35">
+      <c r="DP35">
         <v>8</v>
       </c>
-      <c r="AC35">
+      <c r="DQ35">
         <v>7</v>
       </c>
-      <c r="AD35">
+      <c r="DR35">
         <v>7</v>
       </c>
-      <c r="AE35">
+      <c r="DS35">
         <v>8</v>
       </c>
-      <c r="AF35">
+      <c r="DT35">
         <v>7</v>
       </c>
-      <c r="AH35">
+      <c r="DV35">
         <v>7</v>
       </c>
-      <c r="AI35">
+      <c r="DW35">
         <v>7</v>
       </c>
-      <c r="AJ35">
+      <c r="DX35">
         <v>8</v>
       </c>
-      <c r="AK35">
+      <c r="DY35">
         <v>8</v>
       </c>
-      <c r="AL35">
+      <c r="DZ35">
         <v>8</v>
       </c>
-      <c r="AM35">
+      <c r="EA35">
         <v>8</v>
       </c>
-      <c r="AN35">
+      <c r="EB35">
         <v>10</v>
       </c>
-      <c r="AO35">
+      <c r="EC35">
         <v>8</v>
       </c>
-      <c r="AP35">
+      <c r="ED35">
         <v>8</v>
       </c>
-      <c r="AQ35">
+      <c r="EE35">
         <v>8</v>
       </c>
-      <c r="AT35">
+      <c r="EJ35">
         <v>7</v>
       </c>
-      <c r="AU35">
+      <c r="EK35">
         <v>8</v>
       </c>
-      <c r="AV35">
+      <c r="EL35">
         <v>8</v>
       </c>
-      <c r="AW35">
+      <c r="EM35">
         <v>13</v>
       </c>
-      <c r="AX35">
+      <c r="EN35">
         <v>14</v>
       </c>
-      <c r="AY35">
+      <c r="EO35">
         <v>14</v>
       </c>
-      <c r="BB35">
+      <c r="ER35">
         <v>14</v>
       </c>
-      <c r="BC35">
+      <c r="ES35">
         <v>14</v>
       </c>
-      <c r="BD35">
+      <c r="ET35">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" t="s">
+        <v>193</v>
+      </c>
+      <c r="O36" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>193</v>
+      </c>
+      <c r="R36" t="s">
+        <v>193</v>
+      </c>
+      <c r="S36" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" t="s">
+        <v>193</v>
+      </c>
+      <c r="U36" t="s">
+        <v>193</v>
+      </c>
+      <c r="V36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W36" t="s">
+        <v>193</v>
+      </c>
+      <c r="X36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>193</v>
       </c>
       <c r="AR36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>207</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AS36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="EF40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EI40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EP40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" t="s">
-        <v>171</v>
+      <c r="EF41" t="s">
+        <v>231</v>
+      </c>
+      <c r="EG41" t="s">
+        <v>231</v>
+      </c>
+      <c r="EH41" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EG42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EH42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU43" t="s">
+        <v>234</v>
+      </c>
+      <c r="EV43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" t="s">
+        <v>194</v>
+      </c>
+      <c r="N44" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>194</v>
+      </c>
+      <c r="R44" t="s">
+        <v>194</v>
+      </c>
+      <c r="S44" t="s">
+        <v>194</v>
+      </c>
+      <c r="T44" t="s">
+        <v>194</v>
+      </c>
+      <c r="U44" t="s">
+        <v>194</v>
+      </c>
+      <c r="V44" t="s">
+        <v>194</v>
+      </c>
+      <c r="W44" t="s">
+        <v>194</v>
+      </c>
+      <c r="X44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH44" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CJ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT44" t="s">
+        <v>206</v>
+      </c>
+      <c r="DG44" t="s">
+        <v>219</v>
+      </c>
+      <c r="EU44" t="s">
+        <v>235</v>
+      </c>
+      <c r="EV44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="EW45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" t="s">
+        <v>193</v>
+      </c>
+      <c r="N46" t="s">
+        <v>193</v>
+      </c>
+      <c r="O46" t="s">
+        <v>193</v>
+      </c>
+      <c r="P46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>193</v>
+      </c>
+      <c r="R46" t="s">
+        <v>193</v>
+      </c>
+      <c r="S46" t="s">
+        <v>193</v>
+      </c>
+      <c r="T46" t="s">
+        <v>193</v>
+      </c>
+      <c r="U46" t="s">
+        <v>193</v>
+      </c>
+      <c r="V46" t="s">
+        <v>193</v>
+      </c>
+      <c r="W46" t="s">
+        <v>193</v>
+      </c>
+      <c r="X46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47" t="s">
+        <v>195</v>
+      </c>
+      <c r="M47" t="s">
+        <v>195</v>
+      </c>
+      <c r="N47" t="s">
+        <v>195</v>
+      </c>
+      <c r="O47" t="s">
+        <v>195</v>
+      </c>
+      <c r="P47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>195</v>
+      </c>
+      <c r="R47" t="s">
+        <v>195</v>
+      </c>
+      <c r="S47" t="s">
+        <v>195</v>
+      </c>
+      <c r="T47" t="s">
+        <v>195</v>
+      </c>
+      <c r="U47" t="s">
+        <v>195</v>
+      </c>
+      <c r="V47" t="s">
+        <v>195</v>
+      </c>
+      <c r="W47" t="s">
+        <v>195</v>
+      </c>
+      <c r="X47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" t="s">
+        <v>196</v>
+      </c>
+      <c r="N48" t="s">
+        <v>196</v>
+      </c>
+      <c r="O48" t="s">
+        <v>196</v>
+      </c>
+      <c r="P48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S48" t="s">
+        <v>196</v>
+      </c>
+      <c r="T48" t="s">
+        <v>196</v>
+      </c>
+      <c r="U48" t="s">
+        <v>196</v>
+      </c>
+      <c r="V48" t="s">
+        <v>196</v>
+      </c>
+      <c r="W48" t="s">
+        <v>196</v>
+      </c>
+      <c r="X48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BV48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" t="s">
+        <v>197</v>
+      </c>
+      <c r="P49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>197</v>
+      </c>
+      <c r="R49" t="s">
+        <v>197</v>
+      </c>
+      <c r="S49" t="s">
+        <v>197</v>
+      </c>
+      <c r="T49" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" t="s">
+        <v>197</v>
+      </c>
+      <c r="V49" t="s">
+        <v>197</v>
+      </c>
+      <c r="W49" t="s">
+        <v>197</v>
+      </c>
+      <c r="X49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s">
+        <v>198</v>
+      </c>
+      <c r="N50" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>198</v>
+      </c>
+      <c r="R50" t="s">
+        <v>198</v>
+      </c>
+      <c r="S50" t="s">
+        <v>198</v>
+      </c>
+      <c r="T50" t="s">
+        <v>198</v>
+      </c>
+      <c r="U50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V50" t="s">
+        <v>198</v>
+      </c>
+      <c r="W50" t="s">
+        <v>198</v>
+      </c>
+      <c r="X50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" t="s">
+        <v>199</v>
+      </c>
+      <c r="J51" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" t="s">
+        <v>199</v>
+      </c>
+      <c r="M51" t="s">
+        <v>199</v>
+      </c>
+      <c r="N51" t="s">
+        <v>199</v>
+      </c>
+      <c r="O51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>199</v>
+      </c>
+      <c r="R51" t="s">
+        <v>199</v>
+      </c>
+      <c r="S51" t="s">
+        <v>199</v>
+      </c>
+      <c r="T51" t="s">
+        <v>199</v>
+      </c>
+      <c r="U51" t="s">
+        <v>199</v>
+      </c>
+      <c r="V51" t="s">
+        <v>199</v>
+      </c>
+      <c r="W51" t="s">
+        <v>199</v>
+      </c>
+      <c r="X51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>200</v>
+      </c>
+      <c r="L52" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" t="s">
+        <v>200</v>
+      </c>
+      <c r="O52" t="s">
+        <v>200</v>
+      </c>
+      <c r="P52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>200</v>
+      </c>
+      <c r="R52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S52" t="s">
+        <v>200</v>
+      </c>
+      <c r="T52" t="s">
+        <v>200</v>
+      </c>
+      <c r="U52" t="s">
+        <v>200</v>
+      </c>
+      <c r="V52" t="s">
+        <v>200</v>
+      </c>
+      <c r="W52" t="s">
+        <v>200</v>
+      </c>
+      <c r="X52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" t="s">
+        <v>201</v>
+      </c>
+      <c r="L53" t="s">
+        <v>201</v>
+      </c>
+      <c r="M53" t="s">
+        <v>201</v>
+      </c>
+      <c r="N53" t="s">
+        <v>201</v>
+      </c>
+      <c r="O53" t="s">
+        <v>201</v>
+      </c>
+      <c r="P53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>201</v>
+      </c>
+      <c r="R53" t="s">
+        <v>201</v>
+      </c>
+      <c r="S53" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53" t="s">
+        <v>201</v>
+      </c>
+      <c r="U53" t="s">
+        <v>201</v>
+      </c>
+      <c r="V53" t="s">
+        <v>201</v>
+      </c>
+      <c r="W53" t="s">
+        <v>201</v>
+      </c>
+      <c r="X53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CT53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>202</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
+      <c r="O54" t="s">
+        <v>202</v>
+      </c>
+      <c r="P54" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>205</v>
+      </c>
+      <c r="R54" t="s">
+        <v>205</v>
+      </c>
+      <c r="S54" t="s">
+        <v>202</v>
+      </c>
+      <c r="T54" t="s">
+        <v>202</v>
+      </c>
+      <c r="U54" t="s">
+        <v>205</v>
+      </c>
+      <c r="V54" t="s">
+        <v>205</v>
+      </c>
+      <c r="W54" t="s">
+        <v>205</v>
+      </c>
+      <c r="X54" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CD54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
+        <v>203</v>
+      </c>
+      <c r="I55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J55" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L55" t="s">
+        <v>203</v>
+      </c>
+      <c r="M55" t="s">
+        <v>203</v>
+      </c>
+      <c r="N55" t="s">
+        <v>203</v>
+      </c>
+      <c r="O55" t="s">
+        <v>203</v>
+      </c>
+      <c r="P55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>203</v>
+      </c>
+      <c r="R55" t="s">
+        <v>203</v>
+      </c>
+      <c r="S55" t="s">
+        <v>203</v>
+      </c>
+      <c r="T55" t="s">
+        <v>203</v>
+      </c>
+      <c r="U55" t="s">
+        <v>203</v>
+      </c>
+      <c r="V55" t="s">
+        <v>203</v>
+      </c>
+      <c r="W55" t="s">
+        <v>203</v>
+      </c>
+      <c r="X55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
+        <v>204</v>
+      </c>
+      <c r="I56" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" t="s">
+        <v>204</v>
+      </c>
+      <c r="L56" t="s">
+        <v>204</v>
+      </c>
+      <c r="M56" t="s">
+        <v>204</v>
+      </c>
+      <c r="N56" t="s">
+        <v>204</v>
+      </c>
+      <c r="O56" t="s">
+        <v>204</v>
+      </c>
+      <c r="P56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>204</v>
+      </c>
+      <c r="R56" t="s">
+        <v>204</v>
+      </c>
+      <c r="S56" t="s">
+        <v>204</v>
+      </c>
+      <c r="T56" t="s">
+        <v>204</v>
+      </c>
+      <c r="U56" t="s">
+        <v>204</v>
+      </c>
+      <c r="V56" t="s">
+        <v>204</v>
+      </c>
+      <c r="W56" t="s">
+        <v>204</v>
+      </c>
+      <c r="X56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CT56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN59" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/7945.xlsx
+++ b/icd_files/7945.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3063F75-9766-449D-97A2-CB58B8141AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12703F16-B46E-4394-B516-A558985770A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="329">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -510,6 +510,12 @@
     <t>11-04</t>
   </si>
   <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>11-06</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -519,30 +525,129 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
+    <t>Folic Acid</t>
+  </si>
+  <si>
     <t>Potassium Chl 20 mEq / 1000 mL D5NS</t>
   </si>
   <si>
-    <t>NS</t>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycodONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>HydrALAZINE HCl</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Morphine Sulfate</t>
   </si>
   <si>
     <t>LR</t>
   </si>
   <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Syringe (IV Room)</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
     <t>23:00</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>250 ml</t>
+  </si>
+  <si>
+    <t>10 BAG</t>
+  </si>
+  <si>
+    <t>2.5 ml</t>
+  </si>
+  <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>1 ml</t>
+  </si>
+  <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>2 ml</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>3 ml</t>
+  </si>
+  <si>
+    <t>30 BAG</t>
+  </si>
+  <si>
     <t>500 ml</t>
   </si>
   <si>
-    <t>1000 BAG</t>
-  </si>
-  <si>
-    <t>250 ml</t>
-  </si>
-  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -576,6 +681,27 @@
     <t>22:00</t>
   </si>
   <si>
+    <t>40 CAP</t>
+  </si>
+  <si>
+    <t>1-2 ml</t>
+  </si>
+  <si>
+    <t>5000 ml</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>40 TAB</t>
+  </si>
+  <si>
+    <t>1 CAP</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>06:30</t>
   </si>
   <si>
@@ -589,6 +715,27 @@
   </si>
   <si>
     <t>16:30</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
+    <t>100 UDCUP</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
+  </si>
+  <si>
+    <t>20 PKT</t>
+  </si>
+  <si>
+    <t>10-15 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -3731,7 +3878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000000-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4633,7 +4780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000001-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5535,7 +5682,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000002-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6449,7 +6596,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000003-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7363,7 +7510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000004-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7974,7 +8121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000005-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8499,7 +8646,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000006-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9024,7 +9171,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000007-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9549,7 +9696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7E99-4653-B6C8-18106436D9CE}"/>
+              <c16:uniqueId val="{00000008-1AB7-4C9E-97F7-C9E60699E98D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9992,7 +10139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD4E522-A615-4C4E-8636-7DA1D960D3F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4830187D-3884-4404-B179-244585F79AA0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -10017,7 +10164,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10030,7 +10177,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -10043,7 +10190,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -10056,7 +10203,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -10069,27 +10216,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -10117,7 +10264,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -10145,11 +10292,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -10172,7 +10319,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10209,7 +10356,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -10232,14 +10379,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -10262,14 +10409,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -10292,14 +10439,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -10322,14 +10469,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -10352,16 +10499,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -10384,14 +10531,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -10414,10 +10561,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -10425,7 +10572,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -10437,7 +10584,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -10460,7 +10607,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -10476,11 +10623,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -10503,7 +10650,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -10521,7 +10668,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -10544,7 +10691,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -10563,7 +10710,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -10586,10 +10733,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -10607,7 +10754,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -10630,52 +10777,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -10698,53 +10845,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -10767,43 +10914,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -10811,7 +10958,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -10834,43 +10981,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -10878,7 +11025,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -10901,43 +11048,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -10945,7 +11092,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -10968,43 +11115,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -11012,7 +11159,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -11035,43 +11182,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -11079,7 +11226,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -11102,43 +11249,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -11146,7 +11293,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -11169,43 +11316,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -11213,7 +11360,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -11236,43 +11383,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -11280,7 +11427,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -11303,43 +11450,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -11347,7 +11494,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -11370,43 +11517,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -11414,7 +11561,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -11437,43 +11584,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -11481,7 +11628,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -11504,7 +11651,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -11517,10 +11664,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -11528,7 +11675,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -11551,14 +11698,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -11573,7 +11720,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -11596,7 +11743,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -11616,7 +11763,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -11639,7 +11786,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -11659,7 +11806,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -11682,7 +11829,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -11700,11 +11847,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -11727,14 +11874,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -11757,14 +11904,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -11787,14 +11934,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -11817,14 +11964,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -11847,14 +11994,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -11877,14 +12024,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -11907,10 +12054,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -11927,7 +12074,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -11950,7 +12097,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -11968,7 +12115,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -11991,7 +12138,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -12009,7 +12156,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -12032,14 +12179,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -12062,14 +12209,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -12092,24 +12239,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -12132,7 +12279,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -12141,7 +12288,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -12164,14 +12311,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -12179,7 +12326,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -12202,7 +12349,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -12211,7 +12358,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -12234,14 +12381,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -12249,7 +12396,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -12272,7 +12419,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -12281,7 +12428,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -12304,24 +12451,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -12344,7 +12491,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -12353,7 +12500,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -12376,22 +12523,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -12399,7 +12546,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -12422,7 +12569,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -12435,7 +12582,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -12458,32 +12605,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -12506,7 +12653,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -12515,7 +12662,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -12538,14 +12685,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -12553,7 +12700,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -12576,14 +12723,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -12606,12 +12753,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -12639,7 +12786,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -12666,13 +12813,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -12700,7 +12847,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -12812,7 +12959,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -12840,7 +12987,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -12868,7 +13015,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -16366,13 +16513,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:BD38"/>
+  <dimension ref="A30:EW59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -16380,7 +16527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:153" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>155</v>
       </c>
@@ -16439,297 +16586,879 @@
         <v>156</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CJ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CL31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CU31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CV31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CX31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DA31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="DQ31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EO31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EP31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="EU31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EV31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EW31" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J32" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="R32" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="S32" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="T32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="U32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="V32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="W32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Y32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Z32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AA32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AB32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AC32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AD32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AE32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AF32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AG32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AH32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AI32" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AJ32" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AK32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AL32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AM32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AN32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AO32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AP32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AQ32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AR32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AS32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AT32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AU32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AV32" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AW32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AX32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AY32" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AZ32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="BA32" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="BB32" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="BC32" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="BD32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>192</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>210</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>213</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>215</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>217</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>218</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>210</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>210</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>214</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>216</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>191</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>208</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>226</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>228</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>229</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>214</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>230</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>216</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>208</v>
+      </c>
+      <c r="EK32" t="s">
+        <v>210</v>
+      </c>
+      <c r="EL32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM32" t="s">
+        <v>214</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>216</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>191</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>192</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>208</v>
+      </c>
+      <c r="ES32" t="s">
+        <v>210</v>
+      </c>
+      <c r="ET32" t="s">
+        <v>212</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>192</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -16753,28 +17482,28 @@
         <v>6</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -16783,169 +17512,4318 @@
         <v>6</v>
       </c>
       <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AA35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <v>6</v>
+      </c>
+      <c r="AD35">
+        <v>6</v>
+      </c>
+      <c r="AE35">
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <v>6</v>
+      </c>
+      <c r="AG35">
+        <v>6</v>
+      </c>
+      <c r="AH35">
+        <v>6</v>
+      </c>
+      <c r="AI35">
+        <v>6</v>
+      </c>
+      <c r="AJ35">
+        <v>6</v>
+      </c>
+      <c r="AK35">
+        <v>6</v>
+      </c>
+      <c r="AL35">
+        <v>6</v>
+      </c>
+      <c r="AM35">
+        <v>6</v>
+      </c>
+      <c r="AN35">
+        <v>6</v>
+      </c>
+      <c r="AO35">
+        <v>6</v>
+      </c>
+      <c r="AP35">
+        <v>6</v>
+      </c>
+      <c r="AQ35">
+        <v>6</v>
+      </c>
+      <c r="AR35">
+        <v>6</v>
+      </c>
+      <c r="AS35">
+        <v>6</v>
+      </c>
+      <c r="AT35">
+        <v>6</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>6</v>
+      </c>
+      <c r="AZ35">
+        <v>6</v>
+      </c>
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>6</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>6</v>
+      </c>
+      <c r="BE35">
+        <v>6</v>
+      </c>
+      <c r="BF35">
+        <v>6</v>
+      </c>
+      <c r="BG35">
+        <v>6</v>
+      </c>
+      <c r="BH35">
+        <v>6</v>
+      </c>
+      <c r="BI35">
+        <v>6</v>
+      </c>
+      <c r="BJ35">
+        <v>6</v>
+      </c>
+      <c r="BK35">
+        <v>6</v>
+      </c>
+      <c r="BL35">
+        <v>6</v>
+      </c>
+      <c r="BM35">
+        <v>6</v>
+      </c>
+      <c r="BN35">
+        <v>6</v>
+      </c>
+      <c r="BO35">
+        <v>6</v>
+      </c>
+      <c r="BP35">
+        <v>6</v>
+      </c>
+      <c r="BQ35">
+        <v>6</v>
+      </c>
+      <c r="BR35">
+        <v>6</v>
+      </c>
+      <c r="BS35">
+        <v>6</v>
+      </c>
+      <c r="BT35">
+        <v>6</v>
+      </c>
+      <c r="BU35">
+        <v>6</v>
+      </c>
+      <c r="BV35">
+        <v>6</v>
+      </c>
+      <c r="BW35">
+        <v>6</v>
+      </c>
+      <c r="BX35">
+        <v>6</v>
+      </c>
+      <c r="BY35">
+        <v>6</v>
+      </c>
+      <c r="BZ35">
+        <v>6</v>
+      </c>
+      <c r="CA35">
+        <v>6</v>
+      </c>
+      <c r="CB35">
+        <v>6</v>
+      </c>
+      <c r="CC35">
+        <v>6</v>
+      </c>
+      <c r="CD35">
+        <v>6</v>
+      </c>
+      <c r="CE35">
+        <v>6</v>
+      </c>
+      <c r="CF35">
+        <v>6</v>
+      </c>
+      <c r="CG35">
+        <v>6</v>
+      </c>
+      <c r="CH35">
+        <v>6</v>
+      </c>
+      <c r="CI35">
+        <v>6</v>
+      </c>
+      <c r="CJ35">
+        <v>6</v>
+      </c>
+      <c r="CK35">
+        <v>6</v>
+      </c>
+      <c r="CL35">
+        <v>6</v>
+      </c>
+      <c r="CM35">
+        <v>6</v>
+      </c>
+      <c r="CN35">
+        <v>6</v>
+      </c>
+      <c r="CO35">
+        <v>6</v>
+      </c>
+      <c r="CP35">
+        <v>6</v>
+      </c>
+      <c r="CQ35">
+        <v>6</v>
+      </c>
+      <c r="CR35">
+        <v>6</v>
+      </c>
+      <c r="CS35">
+        <v>6</v>
+      </c>
+      <c r="CT35">
+        <v>6</v>
+      </c>
+      <c r="CU35">
+        <v>10</v>
+      </c>
+      <c r="CV35">
+        <v>10</v>
+      </c>
+      <c r="CW35">
+        <v>10</v>
+      </c>
+      <c r="CX35">
+        <v>10</v>
+      </c>
+      <c r="CY35">
+        <v>10</v>
+      </c>
+      <c r="CZ35">
         <v>7</v>
       </c>
-      <c r="T35">
+      <c r="DA35">
         <v>10</v>
       </c>
-      <c r="U35">
+      <c r="DB35">
         <v>10</v>
       </c>
-      <c r="V35">
+      <c r="DC35">
+        <v>6</v>
+      </c>
+      <c r="DD35">
+        <v>6</v>
+      </c>
+      <c r="DE35">
+        <v>7</v>
+      </c>
+      <c r="DF35">
         <v>10</v>
       </c>
-      <c r="W35">
+      <c r="DH35">
+        <v>10</v>
+      </c>
+      <c r="DI35">
+        <v>10</v>
+      </c>
+      <c r="DJ35">
         <v>7</v>
       </c>
-      <c r="X35">
+      <c r="DK35">
         <v>8</v>
       </c>
-      <c r="Y35">
+      <c r="DL35">
         <v>8</v>
       </c>
-      <c r="Z35">
+      <c r="DM35">
         <v>8</v>
       </c>
-      <c r="AA35">
+      <c r="DO35">
         <v>8</v>
       </c>
-      <c r="AB35">
+      <c r="DP35">
         <v>8</v>
       </c>
-      <c r="AC35">
+      <c r="DQ35">
         <v>7</v>
       </c>
-      <c r="AD35">
+      <c r="DR35">
         <v>7</v>
       </c>
-      <c r="AE35">
+      <c r="DS35">
         <v>8</v>
       </c>
-      <c r="AF35">
+      <c r="DT35">
         <v>7</v>
       </c>
-      <c r="AH35">
+      <c r="DV35">
         <v>7</v>
       </c>
-      <c r="AI35">
+      <c r="DW35">
         <v>7</v>
       </c>
-      <c r="AJ35">
+      <c r="DX35">
         <v>8</v>
       </c>
-      <c r="AK35">
+      <c r="DY35">
         <v>8</v>
       </c>
-      <c r="AL35">
+      <c r="DZ35">
         <v>8</v>
       </c>
-      <c r="AM35">
+      <c r="EA35">
         <v>8</v>
       </c>
-      <c r="AN35">
+      <c r="EB35">
         <v>10</v>
       </c>
-      <c r="AO35">
+      <c r="EC35">
         <v>8</v>
       </c>
-      <c r="AP35">
+      <c r="ED35">
         <v>8</v>
       </c>
-      <c r="AQ35">
+      <c r="EE35">
         <v>8</v>
       </c>
-      <c r="AT35">
+      <c r="EJ35">
         <v>7</v>
       </c>
-      <c r="AU35">
+      <c r="EK35">
         <v>8</v>
       </c>
-      <c r="AV35">
+      <c r="EL35">
         <v>8</v>
       </c>
-      <c r="AW35">
+      <c r="EM35">
         <v>13</v>
       </c>
-      <c r="AX35">
+      <c r="EN35">
         <v>14</v>
       </c>
-      <c r="AY35">
+      <c r="EO35">
         <v>14</v>
       </c>
-      <c r="BB35">
+      <c r="ER35">
         <v>14</v>
       </c>
-      <c r="BC35">
+      <c r="ES35">
         <v>14</v>
       </c>
-      <c r="BD35">
+      <c r="ET35">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:153" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" t="s">
+        <v>193</v>
+      </c>
+      <c r="O36" t="s">
+        <v>193</v>
+      </c>
+      <c r="P36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>193</v>
+      </c>
+      <c r="R36" t="s">
+        <v>193</v>
+      </c>
+      <c r="S36" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" t="s">
+        <v>193</v>
+      </c>
+      <c r="U36" t="s">
+        <v>193</v>
+      </c>
+      <c r="V36" t="s">
+        <v>193</v>
+      </c>
+      <c r="W36" t="s">
+        <v>193</v>
+      </c>
+      <c r="X36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>193</v>
       </c>
       <c r="AR36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>207</v>
+      </c>
+      <c r="DU36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AS36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="EF40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EI40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EP40" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" t="s">
-        <v>171</v>
+      <c r="EF41" t="s">
+        <v>231</v>
+      </c>
+      <c r="EG41" t="s">
+        <v>231</v>
+      </c>
+      <c r="EH41" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EG42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EH42" t="s">
+        <v>232</v>
+      </c>
+      <c r="EI42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU43" t="s">
+        <v>234</v>
+      </c>
+      <c r="EV43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+      <c r="L44" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" t="s">
+        <v>194</v>
+      </c>
+      <c r="N44" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>194</v>
+      </c>
+      <c r="R44" t="s">
+        <v>194</v>
+      </c>
+      <c r="S44" t="s">
+        <v>194</v>
+      </c>
+      <c r="T44" t="s">
+        <v>194</v>
+      </c>
+      <c r="U44" t="s">
+        <v>194</v>
+      </c>
+      <c r="V44" t="s">
+        <v>194</v>
+      </c>
+      <c r="W44" t="s">
+        <v>194</v>
+      </c>
+      <c r="X44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CD44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH44" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CJ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT44" t="s">
+        <v>206</v>
+      </c>
+      <c r="DG44" t="s">
+        <v>219</v>
+      </c>
+      <c r="EU44" t="s">
+        <v>235</v>
+      </c>
+      <c r="EV44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="EW45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" t="s">
+        <v>193</v>
+      </c>
+      <c r="N46" t="s">
+        <v>193</v>
+      </c>
+      <c r="O46" t="s">
+        <v>193</v>
+      </c>
+      <c r="P46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>193</v>
+      </c>
+      <c r="R46" t="s">
+        <v>193</v>
+      </c>
+      <c r="S46" t="s">
+        <v>193</v>
+      </c>
+      <c r="T46" t="s">
+        <v>193</v>
+      </c>
+      <c r="U46" t="s">
+        <v>193</v>
+      </c>
+      <c r="V46" t="s">
+        <v>193</v>
+      </c>
+      <c r="W46" t="s">
+        <v>193</v>
+      </c>
+      <c r="X46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>193</v>
+      </c>
+      <c r="CT46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" t="s">
+        <v>195</v>
+      </c>
+      <c r="K47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47" t="s">
+        <v>195</v>
+      </c>
+      <c r="M47" t="s">
+        <v>195</v>
+      </c>
+      <c r="N47" t="s">
+        <v>195</v>
+      </c>
+      <c r="O47" t="s">
+        <v>195</v>
+      </c>
+      <c r="P47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>195</v>
+      </c>
+      <c r="R47" t="s">
+        <v>195</v>
+      </c>
+      <c r="S47" t="s">
+        <v>195</v>
+      </c>
+      <c r="T47" t="s">
+        <v>195</v>
+      </c>
+      <c r="U47" t="s">
+        <v>195</v>
+      </c>
+      <c r="V47" t="s">
+        <v>195</v>
+      </c>
+      <c r="W47" t="s">
+        <v>195</v>
+      </c>
+      <c r="X47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CN47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CP47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:153" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" t="s">
+        <v>196</v>
+      </c>
+      <c r="N48" t="s">
+        <v>196</v>
+      </c>
+      <c r="O48" t="s">
+        <v>196</v>
+      </c>
+      <c r="P48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S48" t="s">
+        <v>196</v>
+      </c>
+      <c r="T48" t="s">
+        <v>196</v>
+      </c>
+      <c r="U48" t="s">
+        <v>196</v>
+      </c>
+      <c r="V48" t="s">
+        <v>196</v>
+      </c>
+      <c r="W48" t="s">
+        <v>196</v>
+      </c>
+      <c r="X48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BV48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CH48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CJ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CM48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" t="s">
+        <v>197</v>
+      </c>
+      <c r="P49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>197</v>
+      </c>
+      <c r="R49" t="s">
+        <v>197</v>
+      </c>
+      <c r="S49" t="s">
+        <v>197</v>
+      </c>
+      <c r="T49" t="s">
+        <v>197</v>
+      </c>
+      <c r="U49" t="s">
+        <v>197</v>
+      </c>
+      <c r="V49" t="s">
+        <v>197</v>
+      </c>
+      <c r="W49" t="s">
+        <v>197</v>
+      </c>
+      <c r="X49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CH49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" t="s">
+        <v>198</v>
+      </c>
+      <c r="N50" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>198</v>
+      </c>
+      <c r="R50" t="s">
+        <v>198</v>
+      </c>
+      <c r="S50" t="s">
+        <v>198</v>
+      </c>
+      <c r="T50" t="s">
+        <v>198</v>
+      </c>
+      <c r="U50" t="s">
+        <v>198</v>
+      </c>
+      <c r="V50" t="s">
+        <v>198</v>
+      </c>
+      <c r="W50" t="s">
+        <v>198</v>
+      </c>
+      <c r="X50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BU50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY50" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CM50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CS50" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" t="s">
+        <v>199</v>
+      </c>
+      <c r="J51" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" t="s">
+        <v>199</v>
+      </c>
+      <c r="L51" t="s">
+        <v>199</v>
+      </c>
+      <c r="M51" t="s">
+        <v>199</v>
+      </c>
+      <c r="N51" t="s">
+        <v>199</v>
+      </c>
+      <c r="O51" t="s">
+        <v>199</v>
+      </c>
+      <c r="P51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>199</v>
+      </c>
+      <c r="R51" t="s">
+        <v>199</v>
+      </c>
+      <c r="S51" t="s">
+        <v>199</v>
+      </c>
+      <c r="T51" t="s">
+        <v>199</v>
+      </c>
+      <c r="U51" t="s">
+        <v>199</v>
+      </c>
+      <c r="V51" t="s">
+        <v>199</v>
+      </c>
+      <c r="W51" t="s">
+        <v>199</v>
+      </c>
+      <c r="X51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CG51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CS51" t="s">
+        <v>199</v>
+      </c>
+      <c r="CT51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>200</v>
+      </c>
+      <c r="L52" t="s">
+        <v>200</v>
+      </c>
+      <c r="M52" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" t="s">
+        <v>200</v>
+      </c>
+      <c r="O52" t="s">
+        <v>200</v>
+      </c>
+      <c r="P52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>200</v>
+      </c>
+      <c r="R52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S52" t="s">
+        <v>200</v>
+      </c>
+      <c r="T52" t="s">
+        <v>200</v>
+      </c>
+      <c r="U52" t="s">
+        <v>200</v>
+      </c>
+      <c r="V52" t="s">
+        <v>200</v>
+      </c>
+      <c r="W52" t="s">
+        <v>200</v>
+      </c>
+      <c r="X52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>200</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CE52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CG52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CS52" t="s">
+        <v>200</v>
+      </c>
+      <c r="CT52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" t="s">
+        <v>201</v>
+      </c>
+      <c r="J53" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" t="s">
+        <v>201</v>
+      </c>
+      <c r="L53" t="s">
+        <v>201</v>
+      </c>
+      <c r="M53" t="s">
+        <v>201</v>
+      </c>
+      <c r="N53" t="s">
+        <v>201</v>
+      </c>
+      <c r="O53" t="s">
+        <v>201</v>
+      </c>
+      <c r="P53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>201</v>
+      </c>
+      <c r="R53" t="s">
+        <v>201</v>
+      </c>
+      <c r="S53" t="s">
+        <v>201</v>
+      </c>
+      <c r="T53" t="s">
+        <v>201</v>
+      </c>
+      <c r="U53" t="s">
+        <v>201</v>
+      </c>
+      <c r="V53" t="s">
+        <v>201</v>
+      </c>
+      <c r="W53" t="s">
+        <v>201</v>
+      </c>
+      <c r="X53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>201</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CE53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CG53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CK53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CM53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CR53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CS53" t="s">
+        <v>201</v>
+      </c>
+      <c r="CT53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" t="s">
+        <v>202</v>
+      </c>
+      <c r="L54" t="s">
+        <v>205</v>
+      </c>
+      <c r="M54" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
+      <c r="O54" t="s">
+        <v>202</v>
+      </c>
+      <c r="P54" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>205</v>
+      </c>
+      <c r="R54" t="s">
+        <v>205</v>
+      </c>
+      <c r="S54" t="s">
+        <v>202</v>
+      </c>
+      <c r="T54" t="s">
+        <v>202</v>
+      </c>
+      <c r="U54" t="s">
+        <v>205</v>
+      </c>
+      <c r="V54" t="s">
+        <v>205</v>
+      </c>
+      <c r="W54" t="s">
+        <v>205</v>
+      </c>
+      <c r="X54" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX54" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>202</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CB54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CC54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CD54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CF54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CG54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CK54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CM54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CQ54" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CS54" t="s">
+        <v>202</v>
+      </c>
+      <c r="CT54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
+        <v>203</v>
+      </c>
+      <c r="I55" t="s">
+        <v>203</v>
+      </c>
+      <c r="J55" t="s">
+        <v>203</v>
+      </c>
+      <c r="K55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L55" t="s">
+        <v>203</v>
+      </c>
+      <c r="M55" t="s">
+        <v>203</v>
+      </c>
+      <c r="N55" t="s">
+        <v>203</v>
+      </c>
+      <c r="O55" t="s">
+        <v>203</v>
+      </c>
+      <c r="P55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>203</v>
+      </c>
+      <c r="R55" t="s">
+        <v>203</v>
+      </c>
+      <c r="S55" t="s">
+        <v>203</v>
+      </c>
+      <c r="T55" t="s">
+        <v>203</v>
+      </c>
+      <c r="U55" t="s">
+        <v>203</v>
+      </c>
+      <c r="V55" t="s">
+        <v>203</v>
+      </c>
+      <c r="W55" t="s">
+        <v>203</v>
+      </c>
+      <c r="X55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CE55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CO55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CR55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CS55" t="s">
+        <v>203</v>
+      </c>
+      <c r="CT55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" t="s">
+        <v>204</v>
+      </c>
+      <c r="I56" t="s">
+        <v>204</v>
+      </c>
+      <c r="J56" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" t="s">
+        <v>204</v>
+      </c>
+      <c r="L56" t="s">
+        <v>204</v>
+      </c>
+      <c r="M56" t="s">
+        <v>204</v>
+      </c>
+      <c r="N56" t="s">
+        <v>204</v>
+      </c>
+      <c r="O56" t="s">
+        <v>204</v>
+      </c>
+      <c r="P56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>204</v>
+      </c>
+      <c r="R56" t="s">
+        <v>204</v>
+      </c>
+      <c r="S56" t="s">
+        <v>204</v>
+      </c>
+      <c r="T56" t="s">
+        <v>204</v>
+      </c>
+      <c r="U56" t="s">
+        <v>204</v>
+      </c>
+      <c r="V56" t="s">
+        <v>204</v>
+      </c>
+      <c r="W56" t="s">
+        <v>204</v>
+      </c>
+      <c r="X56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY56" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CF56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CG56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CH56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CI56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CK56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CS56" t="s">
+        <v>204</v>
+      </c>
+      <c r="CT56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:118" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN59" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
